--- a/infrastructure/data/CPI统计数据(2021~至今).xlsx
+++ b/infrastructure/data/CPI统计数据(2021~至今).xlsx
@@ -820,7 +820,7 @@
         <v>100.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="3">
@@ -974,7 +974,7 @@
         <v>100.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>100.6</v>
       </c>
     </row>
   </sheetData>
